--- a/NEW HR/DONE/MATIBAG, EDISON.xlsx
+++ b/NEW HR/DONE/MATIBAG, EDISON.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>9/27,28/2019</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/27-30, 12/1/2023</t>
   </si>
 </sst>
 </file>
@@ -601,17 +607,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -625,20 +625,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,19 +654,72 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -698,80 +757,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -889,6 +874,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1329,7 +1335,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1378,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1442,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1502,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1568,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1631,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1729,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1788,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1853,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1896,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1971,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2157,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2223,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2281,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2347,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2403,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2478,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2521,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2587,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2643,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2741,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2804,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,15 +2910,15 @@
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="0">
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2924,13 +2930,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="6">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2939,14 +2945,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3274,10 +3280,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,60 +3305,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3378,18 +3384,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3436,7 +3442,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>62.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3446,7 +3452,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3533,7 +3539,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="61">
+      <c r="K13" s="49">
         <v>43169</v>
       </c>
     </row>
@@ -4073,7 +4079,7 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="61">
+      <c r="K39" s="49">
         <v>43900</v>
       </c>
     </row>
@@ -4824,15 +4830,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4840,15 +4850,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4856,15 +4870,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4872,15 +4890,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4888,15 +4910,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4904,15 +4930,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4920,15 +4950,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4936,15 +4970,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4952,15 +4990,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5753,17 +5795,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5798,10 +5840,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="5535" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5823,71 +5865,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>MATIBAG, EDISON</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5913,18 +5955,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5971,7 +6013,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.715999999999994</v>
+        <v>60.715999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6099,7 +6141,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -6115,10 +6159,16 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43">
+        <v>5</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42" t="str">
@@ -6128,7 +6178,9 @@
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -8018,17 +8070,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8107,12 +8159,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
